--- a/biology/Médecine/Carcinome_adénoïde_kystique/Carcinome_adénoïde_kystique.xlsx
+++ b/biology/Médecine/Carcinome_adénoïde_kystique/Carcinome_adénoïde_kystique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carcinome_ad%C3%A9no%C3%AFde_kystique</t>
+          <t>Carcinome_adénoïde_kystique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un carcinome adénoïde kystique, ou cylindrome, est un cancer de la famille des adénocarcinomes, le plus souvent développé aux dépens des glandes salivaires, mais aussi de la trachée ou du canal lacrymal.
 </t>
